--- a/artfynd/A 38362-2021.xlsx
+++ b/artfynd/A 38362-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>96205253</v>
+        <v>100711302</v>
       </c>
       <c r="B2" t="n">
-        <v>90653</v>
+        <v>96334</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,44 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>459688.7567071787</v>
+        <v>460654.7670103617</v>
       </c>
       <c r="R2" t="n">
-        <v>6864622.355141696</v>
+        <v>6864418.819088018</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -753,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -763,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -771,50 +768,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar på och i anslutning till viltstig</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>sandtallskog</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96205216</v>
+        <v>100711313</v>
       </c>
       <c r="B3" t="n">
-        <v>90676</v>
+        <v>77588</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,44 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5966</v>
+        <v>864</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Motaggsvamp</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon squamosus</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schaeff.) Quél.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459807.472950829</v>
+        <v>460532.4187673989</v>
       </c>
       <c r="R3" t="n">
-        <v>6864564.880212389</v>
+        <v>6864082.342507601</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -888,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -898,7 +872,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -912,39 +886,28 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Skogsmark</t>
-        </is>
-      </c>
-      <c r="AI3" t="inlineStr">
-        <is>
-          <t>sandtallskog</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>96205090</v>
+        <v>100711267</v>
       </c>
       <c r="B4" t="n">
-        <v>90653</v>
+        <v>78072</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -953,48 +916,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>229821</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459823.5260811325</v>
+        <v>460326.8591907343</v>
       </c>
       <c r="R4" t="n">
-        <v>6864805.944428221</v>
+        <v>6864101.692563338</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1018,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1028,7 +984,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-09-17</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1036,40 +992,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Flera fruktkroppar i laven</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Maria Syrjälä</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>98951687</v>
+        <v>100711280</v>
       </c>
       <c r="B5" t="n">
-        <v>76486</v>
+        <v>78570</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1082,38 +1032,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6487</v>
+        <v>2081</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Härjåsjön, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459662.1383821564</v>
+        <v>460619.8761643572</v>
       </c>
       <c r="R5" t="n">
-        <v>6864606.177517666</v>
+        <v>6864094.527701702</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1137,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1147,7 +1096,7 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
@@ -1167,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>98951677</v>
+        <v>100711308</v>
       </c>
       <c r="B6" t="n">
-        <v>76909</v>
+        <v>96334</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1191,42 +1140,41 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6437</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Härjåsjön , Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>459692.2506225323</v>
+        <v>460450.806194155</v>
       </c>
       <c r="R6" t="n">
-        <v>6864358.898972569</v>
+        <v>6864045.113792237</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1250,7 +1198,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1260,7 +1208,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2022-02-28</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1280,19 +1228,19 @@
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>100711302</v>
+        <v>100711300</v>
       </c>
       <c r="B7" t="n">
         <v>96334</v>
@@ -1332,10 +1280,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>460654.7670103617</v>
+        <v>460438.904586618</v>
       </c>
       <c r="R7" t="n">
-        <v>6864418.819088018</v>
+        <v>6864361.939801192</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1404,10 +1352,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>100711313</v>
+        <v>100711312</v>
       </c>
       <c r="B8" t="n">
-        <v>77588</v>
+        <v>96334</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,25 +1364,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>864</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1444,10 +1392,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>460532.4187673989</v>
+        <v>460663.8684181016</v>
       </c>
       <c r="R8" t="n">
-        <v>6864082.342507601</v>
+        <v>6864430.494897602</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1516,10 +1464,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>100711267</v>
+        <v>100711316</v>
       </c>
       <c r="B9" t="n">
-        <v>78072</v>
+        <v>77506</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,21 +1480,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>229821</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1556,10 +1504,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>460326.8591907343</v>
+        <v>460099.4830133786</v>
       </c>
       <c r="R9" t="n">
-        <v>6864101.692563338</v>
+        <v>6863990.764491933</v>
       </c>
       <c r="S9" t="n">
         <v>15</v>
@@ -1628,10 +1576,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>100711280</v>
+        <v>100711310</v>
       </c>
       <c r="B10" t="n">
-        <v>78570</v>
+        <v>96334</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1640,25 +1588,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1668,10 +1616,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>460619.8761643572</v>
+        <v>460454.9497457169</v>
       </c>
       <c r="R10" t="n">
-        <v>6864094.527701702</v>
+        <v>6864036.111362247</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1740,7 +1688,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>100711308</v>
+        <v>100711299</v>
       </c>
       <c r="B11" t="n">
         <v>96334</v>
@@ -1780,10 +1728,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>460450.806194155</v>
+        <v>460486.8232600313</v>
       </c>
       <c r="R11" t="n">
-        <v>6864045.113792237</v>
+        <v>6864261.48010377</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1852,10 +1800,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>100711300</v>
+        <v>100711295</v>
       </c>
       <c r="B12" t="n">
-        <v>96334</v>
+        <v>78569</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1864,25 +1812,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1892,10 +1840,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>460438.904586618</v>
+        <v>460619.8761643572</v>
       </c>
       <c r="R12" t="n">
-        <v>6864361.939801192</v>
+        <v>6864094.527701702</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1964,7 +1912,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>100711312</v>
+        <v>100711304</v>
       </c>
       <c r="B13" t="n">
         <v>96334</v>
@@ -2004,10 +1952,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>460663.8684181016</v>
+        <v>460583.3528398316</v>
       </c>
       <c r="R13" t="n">
-        <v>6864430.494897602</v>
+        <v>6864323.982115888</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2076,10 +2024,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>100711316</v>
+        <v>100711297</v>
       </c>
       <c r="B14" t="n">
-        <v>77506</v>
+        <v>77258</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2092,21 +2040,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6425</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2116,10 +2064,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>460099.4830133786</v>
+        <v>460379.3449127805</v>
       </c>
       <c r="R14" t="n">
-        <v>6863990.764491933</v>
+        <v>6864313.150413959</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2188,7 +2136,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>100711310</v>
+        <v>100711306</v>
       </c>
       <c r="B15" t="n">
         <v>96334</v>
@@ -2228,10 +2176,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>460454.9497457169</v>
+        <v>460628.3695274559</v>
       </c>
       <c r="R15" t="n">
-        <v>6864036.111362247</v>
+        <v>6864053.42839745</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2300,10 +2248,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>100711294</v>
+        <v>100711291</v>
       </c>
       <c r="B16" t="n">
-        <v>78569</v>
+        <v>77259</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2316,21 +2264,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>228912</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2340,10 +2288,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>459713.0093013519</v>
+        <v>460574.1328177813</v>
       </c>
       <c r="R16" t="n">
-        <v>6864997.60001069</v>
+        <v>6864097.883645031</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2412,10 +2360,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>100711299</v>
+        <v>100711288</v>
       </c>
       <c r="B17" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2424,25 +2372,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2452,10 +2400,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>460486.8232600313</v>
+        <v>460344.6434489273</v>
       </c>
       <c r="R17" t="n">
-        <v>6864261.48010377</v>
+        <v>6864372.930228422</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2524,10 +2472,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>100711287</v>
+        <v>100711281</v>
       </c>
       <c r="B18" t="n">
-        <v>77259</v>
+        <v>78570</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2540,21 +2488,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>228912</v>
+        <v>2081</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2564,10 +2512,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>459787.0113399865</v>
+        <v>460106.8741511818</v>
       </c>
       <c r="R18" t="n">
-        <v>6864590.56685351</v>
+        <v>6863977.010556689</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2636,10 +2584,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>100711263</v>
+        <v>100711311</v>
       </c>
       <c r="B19" t="n">
-        <v>78098</v>
+        <v>96334</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2648,25 +2596,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6453</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2676,10 +2624,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>459735.9482922081</v>
+        <v>460441.3151358742</v>
       </c>
       <c r="R19" t="n">
-        <v>6864942.203522061</v>
+        <v>6863999.980283059</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2748,10 +2696,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>100711275</v>
+        <v>100711292</v>
       </c>
       <c r="B20" t="n">
-        <v>56540</v>
+        <v>77259</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2764,21 +2712,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>228912</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2788,10 +2736,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>459931.2134978434</v>
+        <v>460372.5846375168</v>
       </c>
       <c r="R20" t="n">
-        <v>6864010.645513522</v>
+        <v>6864137.449251003</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2860,10 +2808,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>100711295</v>
+        <v>100711277</v>
       </c>
       <c r="B21" t="n">
-        <v>78569</v>
+        <v>89403</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2872,25 +2820,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6458</v>
+        <v>1205</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -2900,10 +2848,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>460619.8761643572</v>
+        <v>460374.1220274236</v>
       </c>
       <c r="R21" t="n">
-        <v>6864094.527701702</v>
+        <v>6864107.269898937</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2972,10 +2920,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>100711276</v>
+        <v>100711301</v>
       </c>
       <c r="B22" t="n">
-        <v>56540</v>
+        <v>96334</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2984,25 +2932,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3012,10 +2960,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>459695.4964385364</v>
+        <v>460437.3667726308</v>
       </c>
       <c r="R22" t="n">
-        <v>6864473.842062026</v>
+        <v>6864392.116871623</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3084,10 +3032,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>100711304</v>
+        <v>100711315</v>
       </c>
       <c r="B23" t="n">
-        <v>96334</v>
+        <v>77506</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3096,25 +3044,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3124,10 +3072,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>460583.3528398316</v>
+        <v>460367.8053080226</v>
       </c>
       <c r="R23" t="n">
-        <v>6864323.982115888</v>
+        <v>6864132.320777359</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3196,10 +3144,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>100711297</v>
+        <v>100711293</v>
       </c>
       <c r="B24" t="n">
-        <v>77258</v>
+        <v>77259</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3212,21 +3160,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6446</v>
+        <v>228912</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3236,10 +3184,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>460379.3449127805</v>
+        <v>460326.8591907343</v>
       </c>
       <c r="R24" t="n">
-        <v>6864313.150413959</v>
+        <v>6864101.692563338</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3308,10 +3256,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>100711306</v>
+        <v>100711289</v>
       </c>
       <c r="B25" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3320,25 +3268,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3348,10 +3296,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>460628.3695274559</v>
+        <v>460379.3449127805</v>
       </c>
       <c r="R25" t="n">
-        <v>6864053.42839745</v>
+        <v>6864313.150413959</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3420,10 +3368,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>100711286</v>
+        <v>100711317</v>
       </c>
       <c r="B26" t="n">
-        <v>77259</v>
+        <v>77177</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3436,21 +3384,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>228912</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3460,10 +3408,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>459735.9316082247</v>
+        <v>460532.4187673989</v>
       </c>
       <c r="R26" t="n">
-        <v>6864940.790230161</v>
+        <v>6864082.342507601</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3532,10 +3480,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>100711291</v>
+        <v>100711298</v>
       </c>
       <c r="B27" t="n">
-        <v>77259</v>
+        <v>77258</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3548,21 +3496,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3572,10 +3520,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>460574.1328177813</v>
+        <v>460326.8591907343</v>
       </c>
       <c r="R27" t="n">
-        <v>6864097.883645031</v>
+        <v>6864101.692563338</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3644,10 +3592,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>100711288</v>
+        <v>102963579</v>
       </c>
       <c r="B28" t="n">
-        <v>77259</v>
+        <v>96334</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3656,41 +3604,51 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>228912</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Digerbäcken Härjåsjön, Hjd</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>460344.6434489273</v>
+        <v>460514.6683205088</v>
       </c>
       <c r="R28" t="n">
-        <v>6864372.930228422</v>
+        <v>6864139.100820702</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3714,7 +3672,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -3724,7 +3682,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -3744,22 +3702,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>100711281</v>
+        <v>102963586</v>
       </c>
       <c r="B29" t="n">
-        <v>78570</v>
+        <v>96334</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3768,41 +3726,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2081</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Digerbäcken Härjåsjön, Hjd</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>460106.8741511818</v>
+        <v>460546.7768105627</v>
       </c>
       <c r="R29" t="n">
-        <v>6863977.010556689</v>
+        <v>6864181.143453513</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3826,7 +3786,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -3836,7 +3796,7 @@
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="AB29" t="inlineStr">
@@ -3856,19 +3816,19 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>100711311</v>
+        <v>102963564</v>
       </c>
       <c r="B30" t="n">
         <v>96334</v>
@@ -3901,20 +3861,30 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Digerbäcken Härjåsjön, Hjd</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>460441.3151358742</v>
+        <v>460512.2186147226</v>
       </c>
       <c r="R30" t="n">
-        <v>6863999.980283059</v>
+        <v>6864172.117952689</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3938,7 +3908,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -3948,7 +3918,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-08-18</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr">
@@ -3968,22 +3938,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>100711292</v>
+        <v>96205253</v>
       </c>
       <c r="B31" t="n">
-        <v>77259</v>
+        <v>90653</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3992,41 +3962,44 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>460372.5846375168</v>
+        <v>459688.7567071787</v>
       </c>
       <c r="R31" t="n">
-        <v>6864137.449251003</v>
+        <v>6864622.355141696</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4050,7 +4023,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -4060,7 +4033,7 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr">
@@ -4068,34 +4041,50 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar på och i anslutning till viltstig</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>sandtallskog</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>100711277</v>
+        <v>96205216</v>
       </c>
       <c r="B32" t="n">
-        <v>89403</v>
+        <v>90676</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4104,41 +4093,48 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1205</v>
+        <v>5966</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Motaggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Sarcodon squamosus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr"/>
+          <t>(Schaeff.) Quél.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>460374.1220274236</v>
+        <v>459807.472950829</v>
       </c>
       <c r="R32" t="n">
-        <v>6864107.269898937</v>
+        <v>6864564.880212389</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4162,7 +4158,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
@@ -4172,7 +4168,7 @@
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB32" t="inlineStr">
@@ -4186,28 +4182,39 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>Skogsmark</t>
+        </is>
+      </c>
+      <c r="AI32" t="inlineStr">
+        <is>
+          <t>sandtallskog</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>100711320</v>
+        <v>96205090</v>
       </c>
       <c r="B33" t="n">
-        <v>93868</v>
+        <v>90653</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4220,37 +4227,44 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2869</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bollvitmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sphagnum wulfianum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Girg.</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
+          <t>(Fr.:Fr.) P. Karst.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Kvarnbergsmyren, Härjåsjön, Lillhärdal, Hjd</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>459837.8383123052</v>
+        <v>459823.5260811325</v>
       </c>
       <c r="R33" t="n">
-        <v>6864538.60567635</v>
+        <v>6864805.944428221</v>
       </c>
       <c r="S33" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4274,7 +4288,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
@@ -4284,7 +4298,7 @@
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2021-09-17</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr">
@@ -4292,34 +4306,40 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Flera fruktkroppar i laven</t>
+        </is>
+      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
       <c r="AE33" t="b">
         <v>0</v>
       </c>
+      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>Maria Syrjälä</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>100711301</v>
+        <v>98951687</v>
       </c>
       <c r="B34" t="n">
-        <v>96334</v>
+        <v>76486</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4328,41 +4348,42 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6487</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Härjåsjön, Hjd</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>460437.3667726308</v>
+        <v>459662.1383821564</v>
       </c>
       <c r="R34" t="n">
-        <v>6864392.116871623</v>
+        <v>6864606.177517666</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4386,7 +4407,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -4396,7 +4417,7 @@
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="AB34" t="inlineStr">
@@ -4416,22 +4437,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>100711315</v>
+        <v>98951677</v>
       </c>
       <c r="B35" t="n">
-        <v>77506</v>
+        <v>76909</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4444,37 +4465,38 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>6437</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
-          <t>..., Hjd</t>
+          <t>Härjåsjön , Hjd</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>460367.8053080226</v>
+        <v>459692.2506225323</v>
       </c>
       <c r="R35" t="n">
-        <v>6864132.320777359</v>
+        <v>6864358.898972569</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4498,7 +4520,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
@@ -4508,7 +4530,7 @@
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>2022-05-06</t>
+          <t>2022-02-28</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr">
@@ -4528,22 +4550,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Maria Danvind</t>
+          <t>lennart karlsson</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>100711293</v>
+        <v>100711294</v>
       </c>
       <c r="B36" t="n">
-        <v>77259</v>
+        <v>78569</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4556,21 +4578,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>228912</v>
+        <v>6458</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4580,10 +4602,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>460326.8591907343</v>
+        <v>459713.0093013519</v>
       </c>
       <c r="R36" t="n">
-        <v>6864101.692563338</v>
+        <v>6864997.60001069</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
@@ -4652,7 +4674,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>100711289</v>
+        <v>100711287</v>
       </c>
       <c r="B37" t="n">
         <v>77259</v>
@@ -4692,10 +4714,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>460379.3449127805</v>
+        <v>459787.0113399865</v>
       </c>
       <c r="R37" t="n">
-        <v>6864313.150413959</v>
+        <v>6864590.56685351</v>
       </c>
       <c r="S37" t="n">
         <v>15</v>
@@ -4764,10 +4786,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>100711317</v>
+        <v>100711263</v>
       </c>
       <c r="B38" t="n">
-        <v>77177</v>
+        <v>78098</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4780,21 +4802,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>353</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4804,10 +4826,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>460532.4187673989</v>
+        <v>459735.9482922081</v>
       </c>
       <c r="R38" t="n">
-        <v>6864082.342507601</v>
+        <v>6864942.203522061</v>
       </c>
       <c r="S38" t="n">
         <v>15</v>
@@ -4876,10 +4898,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>100711266</v>
+        <v>100711275</v>
       </c>
       <c r="B39" t="n">
-        <v>78072</v>
+        <v>56540</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4892,21 +4914,21 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>229821</v>
+        <v>103021</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -4916,10 +4938,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>459784.8725669582</v>
+        <v>459931.2134978434</v>
       </c>
       <c r="R39" t="n">
-        <v>6865089.568225338</v>
+        <v>6864010.645513522</v>
       </c>
       <c r="S39" t="n">
         <v>15</v>
@@ -4988,10 +5010,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>100711298</v>
+        <v>100711276</v>
       </c>
       <c r="B40" t="n">
-        <v>77258</v>
+        <v>56540</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5004,21 +5026,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>103021</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5028,10 +5050,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>460326.8591907343</v>
+        <v>459695.4964385364</v>
       </c>
       <c r="R40" t="n">
-        <v>6864101.692563338</v>
+        <v>6864473.842062026</v>
       </c>
       <c r="S40" t="n">
         <v>15</v>
@@ -5100,10 +5122,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>102963579</v>
+        <v>100711286</v>
       </c>
       <c r="B41" t="n">
-        <v>96334</v>
+        <v>77259</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5112,51 +5134,41 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>228912</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Digerbäcken Härjåsjön, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>460514.6683205088</v>
+        <v>459735.9316082247</v>
       </c>
       <c r="R41" t="n">
-        <v>6864139.100820702</v>
+        <v>6864940.790230161</v>
       </c>
       <c r="S41" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -5180,7 +5192,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
@@ -5190,7 +5202,7 @@
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB41" t="inlineStr">
@@ -5210,22 +5222,22 @@
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX41" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>102963586</v>
+        <v>100711320</v>
       </c>
       <c r="B42" t="n">
-        <v>96334</v>
+        <v>93868</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5234,43 +5246,41 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>220787</v>
+        <v>2869</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bollvitmossa</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Sphagnum wulfianum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Girg.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Digerbäcken Härjåsjön, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>460546.7768105627</v>
+        <v>459837.8383123052</v>
       </c>
       <c r="R42" t="n">
-        <v>6864181.143453513</v>
+        <v>6864538.60567635</v>
       </c>
       <c r="S42" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5294,7 +5304,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
@@ -5304,7 +5314,7 @@
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr">
@@ -5324,22 +5334,22 @@
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>102963564</v>
+        <v>100711266</v>
       </c>
       <c r="B43" t="n">
-        <v>96334</v>
+        <v>78072</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5348,51 +5358,41 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>229821</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>överblommad</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr"/>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Digerbäcken Härjåsjön, Hjd</t>
+          <t>..., Hjd</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>460512.2186147226</v>
+        <v>459784.8725669582</v>
       </c>
       <c r="R43" t="n">
-        <v>6864172.117952689</v>
+        <v>6865089.568225338</v>
       </c>
       <c r="S43" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>2022-08-18</t>
+          <t>2022-05-06</t>
         </is>
       </c>
       <c r="AB43" t="inlineStr">
@@ -5446,12 +5446,12 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>lennart karlsson</t>
+          <t>Maria Danvind</t>
         </is>
       </c>
       <c r="AY43" t="inlineStr"/>
